--- a/data/evaluation/evaluation_Center_Autumn_Clementines.xlsx
+++ b/data/evaluation/evaluation_Center_Autumn_Clementines.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2155.038095238096</v>
+        <v>2117.109523809524</v>
       </c>
       <c r="C3" t="n">
-        <v>9792055.789651033</v>
+        <v>9739998.825365318</v>
       </c>
       <c r="D3" t="n">
-        <v>3129.226068798966</v>
+        <v>3120.897118676827</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3017282914445024</v>
+        <v>0.3054404746851673</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2108.536418928563</v>
+        <v>2099.822512826129</v>
       </c>
       <c r="C4" t="n">
-        <v>9655540.455988904</v>
+        <v>9666585.801854448</v>
       </c>
       <c r="D4" t="n">
-        <v>3107.336553382801</v>
+        <v>3109.113346575587</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3114632028183759</v>
+        <v>0.3106755589676055</v>
       </c>
     </row>
     <row r="5">
